--- a/excel/dosyalar/finans_test_list.xlsx
+++ b/excel/dosyalar/finans_test_list.xlsx
@@ -486,10 +486,10 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>4637287.2</v>
+        <v>4341150.22</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>365820.5</v>
+        <v>69683.51999999999</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>4271466.7</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>897728.4200000004</v>
+        <v>601591.4399999999</v>
       </c>
       <c r="H2" s="2" t="n">
         <v>531907.9200000004</v>
@@ -510,803 +510,898 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Flos - Malta</t>
+          <t>Richard - Ghana</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>826702.6</v>
+        <v>349999.1</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>826702.6</v>
+        <v>349999.1</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>755106.51</v>
+        <v>297993.74</v>
       </c>
       <c r="F3" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>71596.08999999997</v>
+        <v>52005.35999999999</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>71596.08999999997</v>
+        <v>52005.35999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Richard - Ghana</t>
+          <t>Flos - Malta</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>349999.1</v>
+        <v>862864.22</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>0</v>
+        <v>17401.26</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>349999.1</v>
+        <v>845462.96</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>297993.74</v>
+        <v>807183.59</v>
       </c>
       <c r="F4" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>52005.35999999999</v>
+        <v>55680.63</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>52005.35999999999</v>
+        <v>38279.37</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Veik - UAE</t>
+          <t>Ingo - Ghana</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>2082294.13</v>
+        <v>84124.22</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>0</v>
+        <v>4900.2</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>2082294.13</v>
+        <v>79224.02</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>2047175.65</v>
+        <v>52182.33</v>
       </c>
       <c r="F5" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>35118.47999999998</v>
+        <v>31941.89</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>35118.47999999998</v>
+        <v>27041.69</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Ingo - Ghana</t>
+          <t>Douglas - Belize</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>84124.22</v>
+        <v>333117.18</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>4900.2</v>
+        <v>55536.66</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>79224.02</v>
+        <v>277580.52</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>52182.33</v>
+        <v>254845.45</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>0</v>
+        <v>22500</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>31941.89</v>
+        <v>78271.72999999998</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>27041.69</v>
+        <v>22735.07000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Bennis - Morocco</t>
+          <t>Lea DeDe</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>981694</v>
+        <v>21733.11</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>981694</v>
+        <v>21733.11</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>969010.46</v>
+        <v>8300</v>
       </c>
       <c r="F7" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>12683.54000000004</v>
+        <v>13433.11</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>12683.54000000004</v>
+        <v>13433.11</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Hamid KHJ - Canada</t>
+          <t>Yadira Rodriguez - Uruguay</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>65699.12</v>
+        <v>94217.5</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>0</v>
+        <v>41804.24</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>65699.12</v>
+        <v>52413.26</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>54663.61</v>
+        <v>40907.5</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>0</v>
+        <v>14185</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>11035.50999999999</v>
+        <v>53310</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>11035.50999999999</v>
+        <v>11505.76</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>YGM</t>
+          <t>Beverley Jackson - USA</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>30826.56</v>
+        <v>19474.1</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>596.47</v>
+        <v>0</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>30230.09</v>
+        <v>19474.1</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>23622.9</v>
+        <v>8000</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>7203.66</v>
+        <v>11474.1</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>6607.189999999999</v>
+        <v>11474.1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Nova - Elaine</t>
+          <t>Hamid KHJ - Canada</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>226193.43</v>
+        <v>65699.12</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>226193.43</v>
+        <v>65699.12</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>220282.53</v>
+        <v>54663.61</v>
       </c>
       <c r="F10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>5910.900000000023</v>
+        <v>11035.50999999999</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>5910.900000000023</v>
+        <v>11035.50999999999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Fevzi - Turkey</t>
+          <t>Tammy, Divi - Aruba</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>29847.56</v>
+        <v>109062.08</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>29847.56</v>
+        <v>109062.08</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>25855.12</v>
+        <v>100269.28</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>3992.440000000002</v>
+        <v>8792.800000000003</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>3992.440000000002</v>
+        <v>8792.800000000003</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Yamanlar Mermer - Turkey</t>
+          <t>Nova - Elaine</t>
         </is>
       </c>
       <c r="B12" s="2" t="n">
-        <v>2107.56</v>
+        <v>226193.43</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>2107.56</v>
+        <v>226193.43</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>0</v>
+        <v>220282.53</v>
       </c>
       <c r="F12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>2107.56</v>
+        <v>5910.900000000023</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>2107.56</v>
+        <v>5910.900000000023</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Henry - Ghana</t>
+          <t>Cem-Mer (PEKER)</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
-        <v>172280.42</v>
+        <v>1231355.51</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>2400</v>
+        <v>46664.48</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>169880.42</v>
+        <v>1184691.03</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>169308</v>
+        <v>1179741.77</v>
       </c>
       <c r="F13" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>2972.420000000013</v>
+        <v>51613.73999999999</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>572.4200000000128</v>
+        <v>4949.260000000009</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Efe - Turkey</t>
+          <t>Amanda O. - Ghana</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
-        <v>94491.12</v>
+        <v>61111.26</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>6028.38</v>
+        <v>0</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>88462.74000000001</v>
+        <v>61111.26</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>88001.3</v>
+        <v>58934.26</v>
       </c>
       <c r="F14" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>6489.819999999992</v>
+        <v>2177</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>461.4400000000023</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Abbas - Angola</t>
+          <t>Yamanlar Mermer - Turkey</t>
         </is>
       </c>
       <c r="B15" s="2" t="n">
-        <v>143292.9</v>
+        <v>2107.56</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>143292.9</v>
+        <v>2107.56</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>142933.21</v>
+        <v>0</v>
       </c>
       <c r="F15" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>359.6900000000023</v>
+        <v>2107.56</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>359.6900000000023</v>
+        <v>2107.56</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>D Stil (Efe) - Turkey</t>
+          <t>Efe - Turkey</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>8001.95</v>
+        <v>91139.38</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>0</v>
+        <v>921.4</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>8001.95</v>
+        <v>90217.98</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>7947.7</v>
+        <v>88462.74000000001</v>
       </c>
       <c r="F16" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>54.25</v>
+        <v>2676.639999999999</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>54.25</v>
+        <v>1755.239999999991</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Gordon - Singapore</t>
+          <t>Henry - Ghana</t>
         </is>
       </c>
       <c r="B17" s="2" t="n">
-        <v>89480.28</v>
+        <v>169880.42</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>89480.28</v>
+        <v>169880.42</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>89740.28</v>
+        <v>169308</v>
       </c>
       <c r="F17" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>-260</v>
+        <v>572.4200000000128</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-260</v>
+        <v>572.4200000000128</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Nana Konadu - Ghana</t>
+          <t>Robert - Bahamas</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>54079.47</v>
+        <v>67799.95</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>54079.47</v>
+        <v>67799.95</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>54564</v>
+        <v>67331.89</v>
       </c>
       <c r="F18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>-484.5299999999988</v>
+        <v>468.0599999999977</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>-484.5299999999988</v>
+        <v>468.0599999999977</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Kirill - Russia</t>
+          <t>Abbas - Angola</t>
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>620677.5599999999</v>
+        <v>143292.9</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>43609.68</v>
+        <v>0</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>577067.88</v>
+        <v>143292.9</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>578281.54</v>
+        <v>142933.21</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>1213.65</v>
+        <v>0</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>42396.0199999999</v>
+        <v>359.6900000000023</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>-1213.660000000033</v>
+        <v>359.6900000000023</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Sanya Dogaltas - Turkey</t>
+          <t>Gordon - Singapore</t>
         </is>
       </c>
       <c r="B20" s="2" t="n">
-        <v>57211.88</v>
+        <v>89480.28</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>3990</v>
+        <v>0</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>53221.88</v>
+        <v>89480.28</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>55461.88</v>
+        <v>89740.28</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>2240</v>
+        <v>0</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>1750</v>
+        <v>-260</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>-2240</v>
+        <v>-260</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Edris Maden - Turkey</t>
+          <t>Nana Konadu - Ghana</t>
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>15525</v>
+        <v>54079.47</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>15525</v>
+        <v>0</v>
       </c>
       <c r="D21" s="2" t="n">
+        <v>54079.47</v>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>54564</v>
+      </c>
+      <c r="F21" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E21" s="2" t="n">
-        <v>2931.31</v>
-      </c>
-      <c r="F21" s="2" t="n">
-        <v>3000</v>
-      </c>
       <c r="G21" s="2" t="n">
-        <v>12593.69</v>
+        <v>-484.5299999999988</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>-2931.31</v>
+        <v>-484.5299999999988</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>JFB - Nevis</t>
+          <t>Cavit - Turkey</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
-        <v>72485.12</v>
+        <v>8837.17</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>0</v>
+        <v>2003.62</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>72485.12</v>
+        <v>6833.55</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>76485.12</v>
+        <v>7772.01</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>0</v>
+        <v>938.46</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>-4000</v>
+        <v>1065.16</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>-4000</v>
+        <v>-938.46</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Tammy, Divi - Aruba</t>
+          <t>Kirill - Russia</t>
         </is>
       </c>
       <c r="B23" s="2" t="n">
-        <v>109062.08</v>
+        <v>620677.5599999999</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>14654.75</v>
+        <v>43609.68</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>94407.33</v>
+        <v>577067.88</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>100269.28</v>
+        <v>578281.54</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>5861.95</v>
+        <v>1213.65</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>8792.800000000003</v>
+        <v>42396.0199999999</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>-5861.949999999997</v>
+        <v>-1213.660000000033</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Beverley Jackson - USA</t>
+          <t>Edris Maden - Turkey</t>
         </is>
       </c>
       <c r="B24" s="2" t="n">
-        <v>16427.5</v>
+        <v>16254</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>16427.5</v>
+        <v>3483</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0</v>
+        <v>12771</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>8000</v>
+        <v>15524.97</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>8000</v>
+        <v>2753.97</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>8427.5</v>
+        <v>729.0300000000007</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>-8000</v>
+        <v>-2753.969999999999</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Yadira Rodriguez - Uruguay</t>
+          <t>Charles Taylor - UK</t>
         </is>
       </c>
       <c r="B25" s="2" t="n">
-        <v>94217.5</v>
+        <v>8000</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>74587.5</v>
+        <v>8000</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>19630</v>
+        <v>0</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>28370</v>
+        <v>3039.83</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>21277.5</v>
+        <v>3039.83</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>65847.5</v>
+        <v>4960.17</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>-8740</v>
+        <v>-3039.83</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>VIA - Russia</t>
+          <t>Bruce - USA</t>
         </is>
       </c>
       <c r="B26" s="2" t="n">
-        <v>551794.0699999999</v>
+        <v>413934.85</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>17750.35</v>
+        <v>6920</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>534043.72</v>
+        <v>407014.85</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>542918.9</v>
+        <v>410474.85</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>8875.18</v>
+        <v>3460</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>8875.169999999925</v>
+        <v>3460</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>-8875.180000000051</v>
+        <v>-3460</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Stephen Adjokatcher - Ghana</t>
+          <t>JFB - Nevis</t>
         </is>
       </c>
       <c r="B27" s="2" t="n">
-        <v>35631</v>
+        <v>72485.12</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>35631</v>
+        <v>0</v>
       </c>
       <c r="D27" s="2" t="n">
+        <v>72485.12</v>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>76485.12</v>
+      </c>
+      <c r="F27" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E27" s="2" t="n">
-        <v>12000</v>
-      </c>
-      <c r="F27" s="2" t="n">
-        <v>12000</v>
-      </c>
       <c r="G27" s="2" t="n">
-        <v>23631</v>
+        <v>-4000</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>-12000</v>
+        <v>-4000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Aurelien Jeudy - Dominican</t>
+          <t>Roland - AU</t>
         </is>
       </c>
       <c r="B28" s="2" t="n">
-        <v>17318.31</v>
+        <v>77362.11</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>17318.31</v>
+        <v>15861.1</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>0</v>
+        <v>61501.01</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>17318.31</v>
+        <v>66001.00999999999</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>17318.31</v>
+        <v>4500</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>0</v>
+        <v>11361.10000000001</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>-17318.31</v>
+        <v>-4499.999999999993</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Douglas - Belize</t>
+          <t>Tracy - AU</t>
         </is>
       </c>
       <c r="B29" s="2" t="n">
-        <v>277386.4</v>
+        <v>180796.16</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>75390.95</v>
+        <v>12441.23</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>201995.45</v>
+        <v>168354.93</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>232345.45</v>
+        <v>174354.93</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>30350</v>
+        <v>6000</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>45040.95000000001</v>
+        <v>6441.23000000001</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>-30350</v>
+        <v>-5999.999999999971</v>
       </c>
     </row>
     <row r="30">
-      <c r="B30" s="2" t="n"/>
-      <c r="C30" s="2" t="n"/>
-      <c r="D30" s="2" t="n"/>
-      <c r="E30" s="2" t="n"/>
-      <c r="F30" s="2" t="n"/>
-      <c r="G30" s="2" t="n"/>
-      <c r="H30" s="2" t="n"/>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>VIA - Russia</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>551794.0699999999</v>
+      </c>
+      <c r="C30" s="2" t="n">
+        <v>17750.35</v>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>534043.72</v>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>542918.9</v>
+      </c>
+      <c r="F30" s="2" t="n">
+        <v>8875.18</v>
+      </c>
+      <c r="G30" s="2" t="n">
+        <v>8875.169999999925</v>
+      </c>
+      <c r="H30" s="2" t="n">
+        <v>-8875.180000000051</v>
+      </c>
     </row>
     <row r="31">
-      <c r="B31" s="2" t="n"/>
-      <c r="C31" s="2" t="n"/>
-      <c r="D31" s="2" t="n"/>
-      <c r="E31" s="2" t="n"/>
-      <c r="F31" s="2" t="n"/>
-      <c r="G31" s="2" t="n"/>
-      <c r="H31" s="2" t="n"/>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Mauro - Honduras</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>203412.62</v>
+      </c>
+      <c r="C31" s="2" t="n">
+        <v>28987.5</v>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>174425.12</v>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>183425.12</v>
+      </c>
+      <c r="F31" s="2" t="n">
+        <v>9000</v>
+      </c>
+      <c r="G31" s="2" t="n">
+        <v>19987.5</v>
+      </c>
+      <c r="H31" s="2" t="n">
+        <v>-9000</v>
+      </c>
     </row>
     <row r="32">
-      <c r="B32" s="2" t="n"/>
-      <c r="C32" s="2" t="n"/>
-      <c r="D32" s="2" t="n"/>
-      <c r="E32" s="2" t="n"/>
-      <c r="F32" s="2" t="n"/>
-      <c r="G32" s="2" t="n"/>
-      <c r="H32" s="2" t="n"/>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Mario &amp; Maurizio Ascione - Malta</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>22475.43</v>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>22475.43</v>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>9004.67</v>
+      </c>
+      <c r="F32" s="2" t="n">
+        <v>9004.67</v>
+      </c>
+      <c r="G32" s="2" t="n">
+        <v>13470.76</v>
+      </c>
+      <c r="H32" s="2" t="n">
+        <v>-9004.67</v>
+      </c>
     </row>
     <row r="33">
-      <c r="B33" s="2" t="n"/>
-      <c r="C33" s="2" t="n"/>
-      <c r="D33" s="2" t="n"/>
-      <c r="E33" s="2" t="n"/>
-      <c r="F33" s="2" t="n"/>
-      <c r="G33" s="2" t="n"/>
-      <c r="H33" s="2" t="n"/>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Stephen Adjokatcher - Ghana</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>35631</v>
+      </c>
+      <c r="C33" s="2" t="n">
+        <v>35631</v>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>22000</v>
+      </c>
+      <c r="F33" s="2" t="n">
+        <v>22000</v>
+      </c>
+      <c r="G33" s="2" t="n">
+        <v>13631</v>
+      </c>
+      <c r="H33" s="2" t="n">
+        <v>-22000</v>
+      </c>
     </row>
     <row r="34">
-      <c r="B34" s="2" t="n"/>
-      <c r="C34" s="2" t="n"/>
-      <c r="D34" s="2" t="n"/>
-      <c r="E34" s="2" t="n"/>
-      <c r="F34" s="2" t="n"/>
-      <c r="G34" s="2" t="n"/>
-      <c r="H34" s="2" t="n"/>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Vimal Kavuru</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>80188.23000000001</v>
+      </c>
+      <c r="C34" s="2" t="n">
+        <v>80188.23000000001</v>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" s="2" t="n">
+        <v>32000</v>
+      </c>
+      <c r="F34" s="2" t="n">
+        <v>32000</v>
+      </c>
+      <c r="G34" s="2" t="n">
+        <v>48188.23000000001</v>
+      </c>
+      <c r="H34" s="2" t="n">
+        <v>-32000</v>
+      </c>
     </row>
     <row r="35">
       <c r="B35" s="2" t="n"/>

--- a/excel/dosyalar/finans_test_list.xlsx
+++ b/excel/dosyalar/finans_test_list.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sayfa1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sayfa1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
@@ -482,422 +482,270 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Flos - Malta</t>
+          <t>Beyzanur Mermer</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>346283.3211</v>
+        <v>50096.5433</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>346283.3211</v>
+        <v>50096.5433</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>332065</v>
+        <v>42376.28</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>14218.3211</v>
+        <v>7720.263299999999</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>14218.3211</v>
+        <v>7720.263299999999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Roland - AU</t>
+          <t>Pukka Stone - Turkey</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>17385.53</v>
+        <v>15362.0175</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>17385.53</v>
+        <v>15362.0175</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>4331.12</v>
+        <v>13273.84</v>
       </c>
       <c r="F3" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>13054.41</v>
+        <v>2088.1775</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>13054.41</v>
+        <v>2088.1775</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Vimal Kavuru</t>
+          <t>Fevzi - Turkey</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>9492.120000000001</v>
+        <v>7502.6436</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>9492.120000000001</v>
+        <v>7502.6436</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>0</v>
+        <v>5507.64</v>
       </c>
       <c r="F4" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>9492.120000000001</v>
+        <v>1995.0036</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>9492.120000000001</v>
+        <v>1995.0036</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Beyzanur Mermer</t>
+          <t>Denmar</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>50096.5433</v>
+        <v>76217.086</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>50096.5433</v>
+        <v>76217.086</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>42376.28</v>
+        <v>75957.09</v>
       </c>
       <c r="F5" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>7720.263299999999</v>
+        <v>259.9959999999992</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>7720.263299999999</v>
+        <v>259.9959999999992</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Cosmin Tache - Romania</t>
+          <t>Cem-Mer (PEKER)</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>43911.472</v>
+        <v>1096000.71925</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>0</v>
+        <v>20511.94875</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>43911.472</v>
+        <v>1075488.7705</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>40153.54</v>
+        <v>1075489.1</v>
       </c>
       <c r="F6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>3757.932000000001</v>
+        <v>20511.61924999999</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>3757.932000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Denmar</t>
+          <t>Natsa - Turkey</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>76217.086</v>
+        <v>5672.73</v>
       </c>
       <c r="C7" s="2" t="n">
+        <v>5672.73</v>
+      </c>
+      <c r="D7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D7" s="2" t="n">
-        <v>76217.086</v>
-      </c>
       <c r="E7" s="2" t="n">
-        <v>75957.09</v>
+        <v>0</v>
       </c>
       <c r="F7" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>259.9959999999992</v>
+        <v>5672.73</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>259.9959999999992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Hamid KHJ - Canada</t>
+          <t>Efe - Turkey</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>17606.1228</v>
+        <v>110909.19126</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>0</v>
+        <v>38885.3</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>17606.1228</v>
+        <v>72023.89126</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>17606.12</v>
+        <v>73623.77</v>
       </c>
       <c r="F8" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>175.002800000002</v>
+        <v>37285.42126</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.002800000002025627</v>
+        <v>-1599.87874</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Douglas - Belize</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2" t="n">
-        <v>2694.65</v>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="B9" s="2" t="n"/>
+      <c r="C9" s="2" t="n"/>
+      <c r="D9" s="2" t="n"/>
+      <c r="E9" s="2" t="n"/>
+      <c r="F9" s="2" t="n"/>
+      <c r="G9" s="2" t="n"/>
+      <c r="H9" s="2" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Osman Avukat - Ghana</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="n">
-        <v>1040</v>
-      </c>
-      <c r="C10" s="2" t="n">
-        <v>1040</v>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2" t="n">
-        <v>1040</v>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="B10" s="2" t="n"/>
+      <c r="C10" s="2" t="n"/>
+      <c r="D10" s="2" t="n"/>
+      <c r="E10" s="2" t="n"/>
+      <c r="F10" s="2" t="n"/>
+      <c r="G10" s="2" t="n"/>
+      <c r="H10" s="2" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Natsa - Turkey</t>
-        </is>
-      </c>
-      <c r="B11" s="2" t="n">
-        <v>5672.73</v>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>5672.73</v>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2" t="n">
-        <v>5672.73</v>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="B11" s="2" t="n"/>
+      <c r="C11" s="2" t="n"/>
+      <c r="D11" s="2" t="n"/>
+      <c r="E11" s="2" t="n"/>
+      <c r="F11" s="2" t="n"/>
+      <c r="G11" s="2" t="n"/>
+      <c r="H11" s="2" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Pukka Stone - Turkey</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="n">
-        <v>15421.0725</v>
-      </c>
-      <c r="C12" s="2" t="n">
-        <v>2147.235</v>
-      </c>
-      <c r="D12" s="2" t="n">
-        <v>13273.8375</v>
-      </c>
-      <c r="E12" s="2" t="n">
-        <v>13273.84</v>
-      </c>
-      <c r="F12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2" t="n">
-        <v>2147.2325</v>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>-0.002500000000509317</v>
-      </c>
+      <c r="B12" s="2" t="n"/>
+      <c r="C12" s="2" t="n"/>
+      <c r="D12" s="2" t="n"/>
+      <c r="E12" s="2" t="n"/>
+      <c r="F12" s="2" t="n"/>
+      <c r="G12" s="2" t="n"/>
+      <c r="H12" s="2" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Villo Home - USA</t>
-        </is>
-      </c>
-      <c r="B13" s="2" t="n">
-        <v>79738.3943</v>
-      </c>
-      <c r="C13" s="2" t="n">
-        <v>15601.92</v>
-      </c>
-      <c r="D13" s="2" t="n">
-        <v>64136.4743</v>
-      </c>
-      <c r="E13" s="2" t="n">
-        <v>64136.51</v>
-      </c>
-      <c r="F13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="2" t="n">
-        <v>15601.8843</v>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>-0.03570000000036089</v>
-      </c>
+      <c r="B13" s="2" t="n"/>
+      <c r="C13" s="2" t="n"/>
+      <c r="D13" s="2" t="n"/>
+      <c r="E13" s="2" t="n"/>
+      <c r="F13" s="2" t="n"/>
+      <c r="G13" s="2" t="n"/>
+      <c r="H13" s="2" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Cem-Mer (PEKER)</t>
-        </is>
-      </c>
-      <c r="B14" s="2" t="n">
-        <v>1095993.143</v>
-      </c>
-      <c r="C14" s="2" t="n">
-        <v>26867.425</v>
-      </c>
-      <c r="D14" s="2" t="n">
-        <v>1069125.718</v>
-      </c>
-      <c r="E14" s="2" t="n">
-        <v>1069126.05</v>
-      </c>
-      <c r="F14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="2" t="n">
-        <v>26867.09300000011</v>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>-0.3319999999366701</v>
-      </c>
+      <c r="B14" s="2" t="n"/>
+      <c r="C14" s="2" t="n"/>
+      <c r="D14" s="2" t="n"/>
+      <c r="E14" s="2" t="n"/>
+      <c r="F14" s="2" t="n"/>
+      <c r="G14" s="2" t="n"/>
+      <c r="H14" s="2" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Efe - Turkey</t>
-        </is>
-      </c>
-      <c r="B15" s="2" t="n">
-        <v>105032.6088</v>
-      </c>
-      <c r="C15" s="2" t="n">
-        <v>41589.4725</v>
-      </c>
-      <c r="D15" s="2" t="n">
-        <v>63443.1363</v>
-      </c>
-      <c r="E15" s="2" t="n">
-        <v>73623.77</v>
-      </c>
-      <c r="F15" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" s="2" t="n">
-        <v>31408.8388</v>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>-10180.63370000001</v>
-      </c>
+      <c r="B15" s="2" t="n"/>
+      <c r="C15" s="2" t="n"/>
+      <c r="D15" s="2" t="n"/>
+      <c r="E15" s="2" t="n"/>
+      <c r="F15" s="2" t="n"/>
+      <c r="G15" s="2" t="n"/>
+      <c r="H15" s="2" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Atu - Ghana</t>
-        </is>
-      </c>
-      <c r="B16" s="2" t="n">
-        <v>105253.667</v>
-      </c>
-      <c r="C16" s="2" t="n">
-        <v>61226.992</v>
-      </c>
-      <c r="D16" s="2" t="n">
-        <v>44026.675</v>
-      </c>
-      <c r="E16" s="2" t="n">
-        <v>90035.75</v>
-      </c>
-      <c r="F16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" s="2" t="n">
-        <v>15217.917</v>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>-46009.075</v>
-      </c>
+      <c r="B16" s="2" t="n"/>
+      <c r="C16" s="2" t="n"/>
+      <c r="D16" s="2" t="n"/>
+      <c r="E16" s="2" t="n"/>
+      <c r="F16" s="2" t="n"/>
+      <c r="G16" s="2" t="n"/>
+      <c r="H16" s="2" t="n"/>
     </row>
     <row r="17">
       <c r="B17" s="2" t="n"/>

--- a/excel/dosyalar/finans_test_list.xlsx
+++ b/excel/dosyalar/finans_test_list.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" state="visible" r:id="rId1"/>
@@ -429,219 +429,220 @@
   <dimension ref="A1:H805"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="18.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col width="20.33203125" customWidth="1" min="8" max="8"/>
+    <col width="27.33203125" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="25" bestFit="1" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Müşteri Adı</t>
+          <t>Customer</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Toplam Sipariş</t>
+          <t>Total Order</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Üretimde</t>
+          <t>On Production</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Sevk Edilen</t>
+          <t>Shipped</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Ödenen</t>
+          <t>Paid</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Peşinat</t>
+          <t>Pre Payment</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Bakiye</t>
+          <t>Balance (Including Production)</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Bakiye(Üretim Hariç)</t>
+          <t>Balance (Except Production)</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Beyzanur Mermer</t>
+          <t>Fevzi - Turkey</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>50096.5433</v>
+        <v>40953.7736</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>50096.5433</v>
+        <v>40953.7736</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>42376.28</v>
+        <v>10814.76</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>7720.263299999999</v>
+        <v>30139.0136</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>7720.263299999999</v>
+        <v>30139.0136</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Pukka Stone - Turkey</t>
+          <t>Beyzanur Mermer</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>15362.0175</v>
+        <v>95364.21829999999</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>0</v>
+        <v>26606.34</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>15362.0175</v>
+        <v>68757.8783</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>13273.84</v>
+        <v>50096.58</v>
       </c>
       <c r="F3" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>2088.1775</v>
+        <v>45267.63829999999</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>2088.1775</v>
+        <v>18661.29829999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Fevzi - Turkey</t>
+          <t>YGM</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>7502.6436</v>
+        <v>54730.63032</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>0</v>
+        <v>2250.47</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>7502.6436</v>
+        <v>52480.16032</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>5507.64</v>
+        <v>36301.68</v>
       </c>
       <c r="F4" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>1995.0036</v>
+        <v>18428.95032</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>1995.0036</v>
+        <v>16178.48032</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Denmar</t>
+          <t>Kent Mermer</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>76217.086</v>
+        <v>77393.9109</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>0</v>
+        <v>21818.94</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>76217.086</v>
+        <v>55574.9709</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>75957.09</v>
+        <v>48480.98</v>
       </c>
       <c r="F5" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>259.9959999999992</v>
+        <v>28912.9309</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>259.9959999999992</v>
+        <v>7093.990899999997</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Cem-Mer (PEKER)</t>
+          <t>Cavit - Turkey</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1096000.71925</v>
+        <v>5010.952144</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>20511.94875</v>
+        <v>0</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>1075488.7705</v>
+        <v>5010.952144</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>1075489.1</v>
+        <v>3085.58</v>
       </c>
       <c r="F6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>20511.61924999999</v>
+        <v>1925.372144</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0</v>
+        <v>1925.372144</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Natsa - Turkey</t>
+          <t>Cem-Mer (PEKER)</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>5672.73</v>
+        <v>1120738.078</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>5672.73</v>
+        <v>1414.075</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0</v>
+        <v>1119324.003</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>0</v>
+        <v>1119324.33</v>
       </c>
       <c r="F7" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>5672.73</v>
+        <v>1413.747999999905</v>
       </c>
       <c r="H7" s="2" t="n">
         <v>0</v>
@@ -650,48 +651,86 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>Sanya Dogaltas - Turkey</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>38314.7316</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>61.2</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>38253.5316</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>38253.54</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>61.19159999999829</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Onmer - Turkey</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>2982.926</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>350</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>2632.926</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>2632.93</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>349.9960000000001</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>Efe - Turkey</t>
         </is>
       </c>
-      <c r="B8" s="2" t="n">
-        <v>110909.19126</v>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>38885.3</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>72023.89126</v>
-      </c>
-      <c r="E8" s="2" t="n">
-        <v>73623.77</v>
-      </c>
-      <c r="F8" s="2" t="n">
+      <c r="B10" s="2" t="n">
+        <v>118249.66676</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>12778.3266</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>105471.34016</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>105566.42</v>
+      </c>
+      <c r="F10" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G8" s="2" t="n">
-        <v>37285.42126</v>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>-1599.87874</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="2" t="n"/>
-      <c r="C9" s="2" t="n"/>
-      <c r="D9" s="2" t="n"/>
-      <c r="E9" s="2" t="n"/>
-      <c r="F9" s="2" t="n"/>
-      <c r="G9" s="2" t="n"/>
-      <c r="H9" s="2" t="n"/>
-    </row>
-    <row r="10">
-      <c r="B10" s="2" t="n"/>
-      <c r="C10" s="2" t="n"/>
-      <c r="D10" s="2" t="n"/>
-      <c r="E10" s="2" t="n"/>
-      <c r="F10" s="2" t="n"/>
-      <c r="G10" s="2" t="n"/>
-      <c r="H10" s="2" t="n"/>
+      <c r="G10" s="2" t="n">
+        <v>12683.24676000001</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>-95.07983999999124</v>
+      </c>
     </row>
     <row r="11">
       <c r="B11" s="2" t="n"/>
